--- a/v2/Imports/menus_template.xlsx
+++ b/v2/Imports/menus_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT Repositories\McDermott\v2\Imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F4E324-90CE-4460-A6F5-50A15A2386A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77877B6B-C1B9-4459-9AA2-839700E1F6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,7 +532,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -922,11 +922,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I16" zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
@@ -934,7 +934,7 @@
     <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -948,7 +948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -962,7 +962,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -976,7 +976,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -990,7 +990,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>86</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>87</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>88</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>89</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>98</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>99</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>100</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>101</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>105</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>31</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>32</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>33</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>34</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>35</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>36</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>37</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>38</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>39</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>40</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>41</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>42</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>43</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>44</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>45</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>46</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>5</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>6</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>7</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>8</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>9</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>10</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>11</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>12</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>13</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>14</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>15</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>16</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>17</v>
       </c>
